--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -132,6 +132,9 @@
   <si>
     <t>- Installation und Anwendung Prettier und PHP-Formatter
 - Bereitstellung Entwicklungstagebuch</t>
+  </si>
+  <si>
+    <t>Restrukturierung, Bereineinigung von Code-Redundanzen, Stage 1 von x</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +770,14 @@
       </c>
       <c r="E16" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="8400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Entwicklungstagebuch" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -135,6 +135,16 @@
   </si>
   <si>
     <t>Restrukturierung, Bereineinigung von Code-Redundanzen, Stage 1 von x</t>
+  </si>
+  <si>
+    <t>Studium OOP mit PHP</t>
+  </si>
+  <si>
+    <t>https://www.php-einfach.de/experte/objektorientierte-programmierung-oop/</t>
+  </si>
+  <si>
+    <t>- Bereinigung von Coderedundanzen
+- Vorarbeiten für MVC</t>
   </si>
 </sst>
 </file>
@@ -499,10 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,12 +783,40 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>45146</v>
+      </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>45147</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -791,8 +830,9 @@
     <hyperlink ref="F9" r:id="rId4" display="https://www.w3schools.com/css/tryit.asp?filename=trycss_template2_grid"/>
     <hyperlink ref="F11" r:id="rId5"/>
     <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F18" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
 </worksheet>
 </file>
--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -145,6 +145,16 @@
   <si>
     <t>- Bereinigung von Coderedundanzen
 - Vorarbeiten für MVC</t>
+  </si>
+  <si>
+    <t>- Umfangreiche Überarbeitung in Richtung MVC
+- Reduktion von Coderedundanz</t>
+  </si>
+  <si>
+    <t>- Umstellung Navigation auf direkte Ansprache der Controller
+- Reorganisation MVC-Prinzip
+- Einführung von Filtern und Sortierungen in DB-Abfragen
+- Einführung von Klassen für Feldauswahl in Übersichten und Formularen, datenbankgesteuert</t>
   </si>
 </sst>
 </file>
@@ -509,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +827,31 @@
       </c>
       <c r="E19" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>45150</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -155,6 +155,18 @@
 - Reorganisation MVC-Prinzip
 - Einführung von Filtern und Sortierungen in DB-Abfragen
 - Einführung von Klassen für Feldauswahl in Übersichten und Formularen, datenbankgesteuert</t>
+  </si>
+  <si>
+    <t>- Organisation von Datenzurücksetzungen über einen Administrations-Controller
+- soweit MySql-Datenbank da legt sich die App jetzt ihre eigene Datenbank an
+- Abspeichern von Sortiermerkmalen in Datenbank 
+- Anwendung von Sortiermerkmalen in Grid-View, auch mehrerer Sortierkriterien hintereinander
+- Harmonisierung von Klassen- und Tabellennamen
+- Auslagerung generischer Funktionen in Oberklasse
+- Weitere Reduktion von Coderedundanzen
+- Dynamische Generierung von Listenanzeigen und Eingabeformularen aus Oberklasse
+- Dynamische Generierung von Listenanzeigen, Create- und Edit-Formularen
+- Dynamische Generierung von Dropdown-Inhalten in Create- und Edit-Formularen</t>
   </si>
 </sst>
 </file>
@@ -207,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -230,11 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -519,28 +526,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="67" style="4" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" style="4"/>
+    <col min="6" max="6" width="76.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
@@ -567,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45140</v>
       </c>
@@ -577,10 +587,6 @@
       <c r="C3" s="4">
         <v>1.5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -589,15 +595,12 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -606,15 +609,12 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -626,14 +626,12 @@
       <c r="C6" s="4">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>0.5</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -642,13 +640,9 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>0.25</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -660,20 +654,14 @@
       <c r="C8" s="4">
         <v>0.5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45142</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>2.75</v>
       </c>
@@ -684,15 +672,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45143</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>5</v>
       </c>
@@ -700,39 +686,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45143</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
       <c r="E11" s="4">
         <v>4</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45144</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
       <c r="E12" s="4">
         <v>6</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -741,49 +721,40 @@
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45144</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>45145</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>1.5</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>45146</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4">
@@ -794,10 +765,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>45146</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="4">
@@ -805,24 +776,24 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>45147</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>45147</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="4">
@@ -830,27 +801,38 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="2">
         <v>45149</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>45150</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="4">
         <v>12</v>
       </c>
     </row>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -167,6 +167,11 @@
 - Dynamische Generierung von Listenanzeigen und Eingabeformularen aus Oberklasse
 - Dynamische Generierung von Listenanzeigen, Create- und Edit-Formularen
 - Dynamische Generierung von Dropdown-Inhalten in Create- und Edit-Formularen</t>
+  </si>
+  <si>
+    <t>- Skripteinbindung für automatische Erstellung benötigter DB-Strukturen
+- Erstellung "Setup-Bereich" für Beladen mit Demodaten per Klick
+- Prototyping FormBuilder-Klasse für effizienteres Erstellen von Standard-Formularen</t>
   </si>
 </sst>
 </file>
@@ -526,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +841,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -172,6 +172,11 @@
     <t>- Skripteinbindung für automatische Erstellung benötigter DB-Strukturen
 - Erstellung "Setup-Bereich" für Beladen mit Demodaten per Klick
 - Prototyping FormBuilder-Klasse für effizienteres Erstellen von Standard-Formularen</t>
+  </si>
+  <si>
+    <t>- Prototpying eigener DB-Controller-Klasse
+- Konfigurierbar per Datei
+- Schutz gegen SQL-Injection mit PDO</t>
   </si>
 </sst>
 </file>
@@ -531,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +857,17 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -177,6 +177,12 @@
     <t>- Prototpying eigener DB-Controller-Klasse
 - Konfigurierbar per Datei
 - Schutz gegen SQL-Injection mit PDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Weiteres Prototpying eigener DB-Controller-Klasse
+- Erstellung der Klasse ConfigFile
+- Probleme bei Iteration durch ein Array von Objekten
+</t>
   </si>
 </sst>
 </file>
@@ -536,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,6 +874,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>

--- a/doc/Tagebuch.xlsx
+++ b/doc/Tagebuch.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -183,6 +183,12 @@
 - Erstellung der Klasse ConfigFile
 - Probleme bei Iteration durch ein Array von Objekten
 </t>
+  </si>
+  <si>
+    <t>Wiederherstellugnsarbteien XAMPP, DB-Controller</t>
+  </si>
+  <si>
+    <t>Pro PHP 8 MVC: Model View Controller Architecture-Driven Application Development</t>
   </si>
 </sst>
 </file>
@@ -542,11 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +891,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:E1"/>
